--- a/DDAf_2022_Tableau_annexe_Tab06.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -112,7 +112,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -154,13 +154,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -181,7 +181,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -250,7 +250,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -262,7 +262,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -364,7 +364,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -382,7 +382,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -400,7 +400,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>

--- a/DDAf_2022_Tableau_annexe_Tab06.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="172">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="171">
   <si>
     <t>Tableau 6 : Indicateurs d'éducation de base</t>
   </si>
@@ -1301,11 +1298,9 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1317,42 +1312,42 @@
     </row>
     <row r="2" spans="1:10" ht="95" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="12">
         <v>77.431129999999996</v>
@@ -1381,10 +1376,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="15">
         <v>97.456289999999996</v>
@@ -1413,10 +1408,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="19">
         <v>95.469369999999998</v>
@@ -1445,10 +1440,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="19">
         <v>86.632199999999997</v>
@@ -1477,10 +1472,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="19">
         <v>72.935609999999997</v>
@@ -1509,10 +1504,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="C8" s="19">
         <v>70.912450000000007</v>
@@ -1541,10 +1536,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="19">
         <v>95.164900000000003</v>
@@ -1573,10 +1568,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="C10" s="19">
         <v>98.409530000000004</v>
@@ -1605,10 +1600,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>29</v>
       </c>
       <c r="C11" s="15">
         <v>92.091570000000004</v>
@@ -1637,10 +1632,10 @@
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>31</v>
       </c>
       <c r="C12" s="22">
         <v>90.428120000000007</v>
@@ -1669,10 +1664,10 @@
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>33</v>
       </c>
       <c r="C13" s="26">
         <v>87.693117000000001</v>
@@ -1701,10 +1696,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="C14" s="19">
         <v>88.221770000000006</v>
@@ -1733,10 +1728,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="C15" s="19">
         <v>85.08</v>
@@ -1765,10 +1760,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="C16" s="19">
         <v>38.268650000000001</v>
@@ -1797,10 +1792,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="C17" s="12">
         <v>30.791609999999999</v>
@@ -1829,10 +1824,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>43</v>
       </c>
       <c r="C18" s="12">
         <v>82.054789999999997</v>
@@ -1861,10 +1856,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="C19" s="15">
         <v>84.989509999999996</v>
@@ -1893,42 +1888,42 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="C20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>48</v>
-      </c>
       <c r="D20" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>49</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>50</v>
       </c>
       <c r="C21" s="12">
         <v>89.783659999999998</v>
@@ -1957,10 +1952,10 @@
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>51</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="C22" s="19">
         <v>97.782550000000001</v>
@@ -1989,10 +1984,10 @@
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="26">
         <v>74.621567499999998</v>
@@ -2021,10 +2016,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="C24" s="19">
         <v>78.270390000000006</v>
@@ -2053,42 +2048,42 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>57</v>
-      </c>
       <c r="C25" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>59</v>
       </c>
       <c r="C26" s="19">
         <v>93.272390000000001</v>
@@ -2117,10 +2112,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="C27" s="19">
         <v>72.754819999999995</v>
@@ -2149,10 +2144,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>63</v>
       </c>
       <c r="C28" s="19">
         <v>87.83</v>
@@ -2181,10 +2176,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="C29" s="19">
         <v>79.851169999999996</v>
@@ -2213,10 +2208,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="C30" s="19">
         <v>99.042029999999997</v>
@@ -2245,10 +2240,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>69</v>
       </c>
       <c r="C31" s="19">
         <v>86.492769999999993</v>
@@ -2277,10 +2272,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="C32" s="19">
         <v>99.07</v>
@@ -2309,42 +2304,42 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>73</v>
-      </c>
       <c r="C33" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="C34" s="15">
         <v>47.900959999999998</v>
@@ -2373,10 +2368,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="C35" s="19">
         <v>73</v>
@@ -2405,10 +2400,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="C36" s="19">
         <v>85.755139999999997</v>
@@ -2437,10 +2432,10 @@
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="C37" s="19">
         <v>89.39631</v>
@@ -2469,10 +2464,10 @@
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="26">
         <v>82.719665000000006</v>
@@ -2501,10 +2496,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>83</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>84</v>
       </c>
       <c r="C39" s="12">
         <v>97.426519999999996</v>
@@ -2533,10 +2528,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="C40" s="19">
         <v>88.19256</v>
@@ -2565,42 +2560,42 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="29" t="s">
-        <v>88</v>
-      </c>
       <c r="C41" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>90</v>
       </c>
       <c r="C42" s="12">
         <v>63.947809999999997</v>
@@ -2629,10 +2624,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="C43" s="19">
         <v>97.73</v>
@@ -2661,10 +2656,10 @@
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>94</v>
       </c>
       <c r="C44" s="19">
         <v>96.209100000000007</v>
@@ -2693,10 +2688,10 @@
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="26">
         <v>88.701198000000005</v>
@@ -2725,10 +2720,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>97</v>
       </c>
       <c r="C46" s="19">
         <v>60.948079999999997</v>
@@ -2757,10 +2752,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="C47" s="19">
         <v>58.873980000000003</v>
@@ -2789,10 +2784,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>101</v>
       </c>
       <c r="C48" s="19">
         <v>98.111310000000003</v>
@@ -2821,10 +2816,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="C49" s="19">
         <v>83.626469999999998</v>
@@ -2853,10 +2848,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="C50" s="19">
         <v>67.161379999999994</v>
@@ -2885,10 +2880,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>107</v>
       </c>
       <c r="C51" s="15">
         <v>92.490970000000004</v>
@@ -2917,10 +2912,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="C52" s="19">
         <v>53.940519999999999</v>
@@ -2949,10 +2944,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="C53" s="19">
         <v>60.402349999999998</v>
@@ -2981,10 +2976,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>113</v>
       </c>
       <c r="C54" s="19">
         <v>55.398699999999998</v>
@@ -3013,10 +3008,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="C55" s="19">
         <v>46.157339999999998</v>
@@ -3045,10 +3040,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>117</v>
       </c>
       <c r="C56" s="19">
         <v>43.46</v>
@@ -3077,10 +3072,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>118</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>119</v>
       </c>
       <c r="C57" s="12">
         <v>75.028750000000002</v>
@@ -3109,10 +3104,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="C58" s="19">
         <v>69.478409999999997</v>
@@ -3141,10 +3136,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="C59" s="19">
         <v>66.648600000000002</v>
@@ -3173,10 +3168,10 @@
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="C60" s="15">
         <v>87.891440000000003</v>
@@ -3206,7 +3201,7 @@
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C61" s="26">
         <v>67.974553333333404</v>
@@ -3236,7 +3231,7 @@
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" s="32">
         <v>78.593279600000002</v>
@@ -3266,7 +3261,7 @@
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="32">
         <v>97.228295978260903</v>
@@ -3296,7 +3291,7 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C64" s="36">
         <v>97.648060400000105</v>
@@ -3326,7 +3321,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" s="39">
         <v>93.828312962962997</v>
@@ -3356,7 +3351,7 @@
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="42">
         <v>90.666670492957806</v>
@@ -3386,7 +3381,7 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" s="39">
         <v>87.084305000000001</v>
@@ -3416,7 +3411,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C68" s="39">
         <v>69.354127272727297</v>
@@ -3446,7 +3441,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69" s="39">
         <v>80.932824999999994</v>
@@ -3476,7 +3471,7 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" s="39">
         <v>76.089644000000007</v>
@@ -3506,7 +3501,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C71" s="39">
         <v>67.974553333333404</v>
@@ -3536,7 +3531,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C72" s="39">
         <v>77.359080000000006</v>
@@ -3566,7 +3561,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C73" s="39">
         <v>87.744338124999999</v>
@@ -3596,7 +3591,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" s="39">
         <v>88.828357499999996</v>
@@ -3626,7 +3621,7 @@
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C75" s="42">
         <v>80.927958000000004</v>
@@ -3656,7 +3651,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" s="39">
         <v>97.143215999999995</v>
@@ -3686,7 +3681,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C77" s="39">
         <v>98.841070000000002</v>
@@ -3716,7 +3711,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C78" s="39">
         <v>99.481400714285698</v>
@@ -3746,7 +3741,7 @@
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C79" s="42">
         <v>99.502862857142901</v>
@@ -3776,7 +3771,7 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C80" s="39">
         <v>73.780609999999996</v>
@@ -3806,7 +3801,7 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C81" s="39">
         <v>97.758459999999999</v>
@@ -3836,7 +3831,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" s="39">
         <v>79.376737441860499</v>
@@ -3866,7 +3861,7 @@
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C83" s="42">
         <v>97.0993371621622</v>
@@ -3896,7 +3891,7 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C84" s="39">
         <v>66.760105909090896</v>
@@ -3926,7 +3921,7 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C85" s="39">
         <v>46.990049999999997</v>
@@ -3956,7 +3951,7 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C86" s="39">
         <v>85.546147272727296</v>
@@ -3986,7 +3981,7 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" s="39">
         <v>94.780648461538505</v>
@@ -4016,7 +4011,7 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C88" s="39">
         <v>95.971282000000002</v>
@@ -4046,7 +4041,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C89" s="39">
         <v>98.854971951219497</v>
@@ -4076,7 +4071,7 @@
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C90" s="42">
         <v>99.207206666666707</v>
@@ -4106,7 +4101,7 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C91" s="39">
         <v>70.356761612903199</v>
@@ -4136,7 +4131,7 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C92" s="39">
         <v>86.984178999999997</v>
@@ -4166,7 +4161,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C93" s="39">
         <v>88.779771666666704</v>
@@ -4196,7 +4191,7 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C94" s="39">
         <v>96.664638124999996</v>
@@ -4226,7 +4221,7 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C95" s="39">
         <v>71.083210625000007</v>
@@ -4256,7 +4251,7 @@
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C96" s="42">
         <v>95.007180000000005</v>
@@ -4286,7 +4281,7 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C97" s="39">
         <v>72.513323939393999</v>
@@ -4316,7 +4311,7 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C98" s="39">
         <v>89.268602857142895</v>
@@ -4346,7 +4341,7 @@
     <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C99" s="42">
         <v>66.871159000000006</v>
@@ -4387,7 +4382,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -4401,7 +4396,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -4415,7 +4410,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -4429,7 +4424,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -4443,7 +4438,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -4479,7 +4474,7 @@
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -4503,7 +4498,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -4516,7 +4511,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -4540,7 +4535,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -4553,7 +4548,7 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -4577,7 +4572,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId1"/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>

--- a/DDAf_2022_Tableau_annexe_Tab06.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="172">
   <si>
     <t>Tableau 6 : Indicateurs d'éducation de base</t>
   </si>
@@ -490,19 +490,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -517,7 +520,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : Base de données de l'Institut de statistique de l'UNESCO (ISU, récupéré le 17/11/2021)</t>
@@ -4134,28 +4137,28 @@
         <v>154</v>
       </c>
       <c r="C92" s="39">
-        <v>86.984178999999997</v>
+        <v>85.951074444444501</v>
       </c>
       <c r="D92" s="39">
-        <v>85.425576000000007</v>
+        <v>84.184349999999995</v>
       </c>
       <c r="E92" s="39">
-        <v>88.567539999999994</v>
+        <v>87.744314444444498</v>
       </c>
       <c r="F92" s="40">
-        <v>0.95024699999999995</v>
+        <v>0.94400555555555998</v>
       </c>
       <c r="G92" s="39">
-        <v>71.234930000000006</v>
+        <v>69.426998888888903</v>
       </c>
       <c r="H92" s="39">
-        <v>65.574173999999999</v>
+        <v>63.226183333333402</v>
       </c>
       <c r="I92" s="39">
-        <v>77.118437</v>
+        <v>75.875335555555594</v>
       </c>
       <c r="J92" s="40">
-        <v>0.827264</v>
+        <v>0.81008444444444005</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
@@ -4251,7 +4254,7 @@
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C96" s="42">
         <v>95.007180000000005</v>
@@ -4281,7 +4284,7 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C97" s="39">
         <v>72.513323939393999</v>
@@ -4311,7 +4314,7 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C98" s="39">
         <v>89.268602857142895</v>
@@ -4341,7 +4344,7 @@
     <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C99" s="42">
         <v>66.871159000000006</v>
@@ -4382,7 +4385,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -4396,7 +4399,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -4410,7 +4413,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -4424,7 +4427,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -4438,7 +4441,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -4474,7 +4477,7 @@
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -4511,7 +4514,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -4535,7 +4538,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -4548,7 +4551,7 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab06.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab06.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -34,28 +34,28 @@
     <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
-    <t>Taux d'alphabétisation des jeunes de 15 à 24 ans, les deux sexes (%, données les plus récentes 2011-20)</t>
-  </si>
-  <si>
-    <t>Taux d'alphabétisation des jeunes de 15 à 24 ans, de sexe féminin (%, données les plus récentes 2011-20)</t>
-  </si>
-  <si>
-    <t>Taux d'alphabétisation des jeunes de 15 à 24 ans, de sexe masculin (%, données les plus récentes 2011-20)</t>
-  </si>
-  <si>
-    <t>Taux d'alphabétisation des jeunes de 15 à 24 ans, indice ajusté de parité entre les sexes (IPSA, données les plus récentes 2011-20)</t>
-  </si>
-  <si>
-    <t>Taux d'alphabétisation de la population âgée de 15 ans et plus, les deux sexes (%, données les plus récentes 2011-20)</t>
-  </si>
-  <si>
-    <t>Taux d'alphabétisation de la population âgée de 15 ans et plus, de sexe féminin (%, données les plus récentes 2011-20)</t>
-  </si>
-  <si>
-    <t>Taux d'alphabétisation de la population âgée de 15 ans et plus, de sexe masculin (%, données les plus récentes 2011-20)</t>
-  </si>
-  <si>
-    <t>Taux d'alphabétisation de la population âgée de 15 ans et plus, indice ajusté de parité hommes-femmes (IPSA, données les plus récentes 2011-20)</t>
+    <t>Taux d'alphabétisation des jeunes de 15 à 24 ans, les deux sexes (%, données les plus récentes 2012-21)</t>
+  </si>
+  <si>
+    <t>Taux d'alphabétisation des jeunes de 15 à 24 ans, de sexe féminin (%, données les plus récentes 2012-21)</t>
+  </si>
+  <si>
+    <t>Taux d'alphabétisation des jeunes de 15 à 24 ans, de sexe masculin (%, données les plus récentes 2012-21)</t>
+  </si>
+  <si>
+    <t>Taux d'alphabétisation des jeunes de 15 à 24 ans, indice ajusté de parité entre les sexes (IPSA, données les plus récentes 2012-21)</t>
+  </si>
+  <si>
+    <t>Taux d'alphabétisation de la population âgée de 15 ans et plus, les deux sexes (%, données les plus récentes 2012-21)</t>
+  </si>
+  <si>
+    <t>Taux d'alphabétisation de la population âgée de 15 ans et plus, de sexe féminin (%, données les plus récentes 2012-21)</t>
+  </si>
+  <si>
+    <t>Taux d'alphabétisation de la population âgée de 15 ans et plus, de sexe masculin (%, données les plus récentes 2012-21)</t>
+  </si>
+  <si>
+    <t>Taux d'alphabétisation de la population âgée de 15 ans et plus, indice ajusté de parité hommes-femmes (IPSA, données les plus récentes 2012-21)</t>
   </si>
   <si>
     <t>AGO</t>
@@ -3267,28 +3267,28 @@
         <v>127</v>
       </c>
       <c r="C63" s="32">
-        <v>97.228295978260903</v>
+        <v>97.189179418604596</v>
       </c>
       <c r="D63" s="32">
-        <v>97.105180978260904</v>
+        <v>97.062205813953497</v>
       </c>
       <c r="E63" s="32">
-        <v>97.368375869565199</v>
+        <v>97.345552441860505</v>
       </c>
       <c r="F63" s="33">
-        <v>0.99499347826087003</v>
+        <v>0.99536697674418995</v>
       </c>
       <c r="G63" s="32">
-        <v>93.010437849462406</v>
+        <v>92.662818390804603</v>
       </c>
       <c r="H63" s="32">
-        <v>91.678774623655897</v>
+        <v>91.252841839080503</v>
       </c>
       <c r="I63" s="32">
-        <v>94.351245053763506</v>
+        <v>94.088169770115002</v>
       </c>
       <c r="J63" s="33">
-        <v>0.96510290322581005</v>
+        <v>0.96371827586207004</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
@@ -3327,28 +3327,28 @@
         <v>129</v>
       </c>
       <c r="C65" s="39">
-        <v>93.828312962962997</v>
+        <v>94.159400000000005</v>
       </c>
       <c r="D65" s="39">
-        <v>92.942192592592605</v>
+        <v>93.293322222222201</v>
       </c>
       <c r="E65" s="39">
-        <v>94.700306666666705</v>
+        <v>95.0471537037037</v>
       </c>
       <c r="F65" s="40">
-        <v>0.97418629629630005</v>
+        <v>0.97658814814814998</v>
       </c>
       <c r="G65" s="39">
-        <v>85.993787037036995</v>
+        <v>86.209238518518504</v>
       </c>
       <c r="H65" s="39">
-        <v>82.584513333333405</v>
+        <v>82.7912888888889</v>
       </c>
       <c r="I65" s="39">
-        <v>89.444708148148095</v>
+        <v>89.690868518518499</v>
       </c>
       <c r="J65" s="40">
-        <v>0.90556037037036996</v>
+        <v>0.90776037037037005</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3357,28 +3357,28 @@
         <v>130</v>
       </c>
       <c r="C66" s="42">
-        <v>90.666670492957806</v>
+        <v>90.352451544117699</v>
       </c>
       <c r="D66" s="42">
-        <v>89.692884929577502</v>
+        <v>89.338696397058797</v>
       </c>
       <c r="E66" s="42">
-        <v>91.747368661971905</v>
+        <v>91.484950588235293</v>
       </c>
       <c r="F66" s="43">
-        <v>0.96740394366197002</v>
+        <v>0.96642294117646999</v>
       </c>
       <c r="G66" s="42">
-        <v>84.042699510489498</v>
+        <v>83.429200802919695</v>
       </c>
       <c r="H66" s="42">
-        <v>81.0141490909091</v>
+        <v>80.276602335766498</v>
       </c>
       <c r="I66" s="42">
-        <v>87.226092867132905</v>
+        <v>86.746979999999994</v>
       </c>
       <c r="J66" s="43">
-        <v>0.90659188811188995</v>
+        <v>0.9031500729927</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
@@ -3717,28 +3717,28 @@
         <v>140</v>
       </c>
       <c r="C78" s="39">
-        <v>99.481400714285698</v>
+        <v>99.502804444444493</v>
       </c>
       <c r="D78" s="39">
-        <v>99.520565000000005</v>
+        <v>99.581906666666697</v>
       </c>
       <c r="E78" s="39">
-        <v>99.457565000000002</v>
+        <v>99.448632222222301</v>
       </c>
       <c r="F78" s="40">
-        <v>1.00062785714286</v>
+        <v>1.0013377777777801</v>
       </c>
       <c r="G78" s="39">
-        <v>98.551313571428594</v>
+        <v>98.206751111111203</v>
       </c>
       <c r="H78" s="39">
-        <v>98.380659285714302</v>
+        <v>98.091163333333398</v>
       </c>
       <c r="I78" s="39">
-        <v>98.742270714285695</v>
+        <v>98.341725555555598</v>
       </c>
       <c r="J78" s="40">
-        <v>0.99639</v>
+        <v>0.99752666666667</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3747,28 +3747,28 @@
         <v>141</v>
       </c>
       <c r="C79" s="42">
-        <v>99.502862857142901</v>
+        <v>99.436281666666702</v>
       </c>
       <c r="D79" s="42">
-        <v>99.565472142857203</v>
+        <v>99.507579166666702</v>
       </c>
       <c r="E79" s="42">
-        <v>99.455540714285704</v>
+        <v>99.382738333333407</v>
       </c>
       <c r="F79" s="43">
-        <v>1.00110571428571</v>
+        <v>1.0012558333333299</v>
       </c>
       <c r="G79" s="42">
-        <v>98.007637142857206</v>
+        <v>97.700460833333395</v>
       </c>
       <c r="H79" s="42">
-        <v>97.644812857142895</v>
+        <v>97.273721666666702</v>
       </c>
       <c r="I79" s="42">
-        <v>98.386448571428602</v>
+        <v>98.146425833333296</v>
       </c>
       <c r="J79" s="43">
-        <v>0.99245571428571</v>
+        <v>0.99112333333333003</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
@@ -3867,28 +3867,28 @@
         <v>145</v>
       </c>
       <c r="C83" s="42">
-        <v>97.0993371621622</v>
+        <v>97.038487500000002</v>
       </c>
       <c r="D83" s="42">
-        <v>96.902598783783802</v>
+        <v>96.830372941176506</v>
       </c>
       <c r="E83" s="42">
-        <v>97.297359864864902</v>
+        <v>97.262228823529497</v>
       </c>
       <c r="F83" s="43">
-        <v>0.99305216216215997</v>
+        <v>0.99335323529412001</v>
       </c>
       <c r="G83" s="42">
-        <v>92.660042000000004</v>
+        <v>92.191270000000003</v>
       </c>
       <c r="H83" s="42">
-        <v>91.317369866666695</v>
+        <v>90.748897681159406</v>
       </c>
       <c r="I83" s="42">
-        <v>94.041815733333294</v>
+        <v>93.683205217391304</v>
       </c>
       <c r="J83" s="43">
-        <v>0.96336279999999996</v>
+        <v>0.96146565217391</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
@@ -3927,28 +3927,28 @@
         <v>147</v>
       </c>
       <c r="C85" s="39">
-        <v>46.990049999999997</v>
+        <v>55.929400000000001</v>
       </c>
       <c r="D85" s="39">
-        <v>32.113219999999998</v>
+        <v>41.593719999999998</v>
       </c>
       <c r="E85" s="39">
-        <v>61.879069999999999</v>
+        <v>71.243939999999995</v>
       </c>
       <c r="F85" s="40">
-        <v>0.51897000000000004</v>
+        <v>0.58382000000000001</v>
       </c>
       <c r="G85" s="39">
-        <v>31.44885</v>
+        <v>37.266039999999997</v>
       </c>
       <c r="H85" s="39">
-        <v>17.01784</v>
+        <v>22.60078</v>
       </c>
       <c r="I85" s="39">
-        <v>45.417099999999998</v>
+        <v>52.063429999999997</v>
       </c>
       <c r="J85" s="40">
-        <v>0.37469999999999998</v>
+        <v>0.43409999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
@@ -4047,28 +4047,28 @@
         <v>151</v>
       </c>
       <c r="C89" s="39">
-        <v>98.854971951219497</v>
+        <v>98.890513333333402</v>
       </c>
       <c r="D89" s="39">
-        <v>98.945057560975599</v>
+        <v>98.983066666666701</v>
       </c>
       <c r="E89" s="39">
-        <v>98.770871951219604</v>
+        <v>98.804335897436005</v>
       </c>
       <c r="F89" s="40">
-        <v>1.00171853658537</v>
+        <v>1.0017630769230801</v>
       </c>
       <c r="G89" s="39">
-        <v>96.187643170731704</v>
+        <v>96.078867692307696</v>
       </c>
       <c r="H89" s="39">
-        <v>95.558944390243894</v>
+        <v>95.428970256410295</v>
       </c>
       <c r="I89" s="39">
-        <v>96.830983414634204</v>
+        <v>96.743538461538506</v>
       </c>
       <c r="J89" s="40">
-        <v>0.98652878048781001</v>
+        <v>0.98606794871795</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4077,28 +4077,28 @@
         <v>152</v>
       </c>
       <c r="C90" s="42">
-        <v>99.207206666666707</v>
+        <v>99.081181999999998</v>
       </c>
       <c r="D90" s="42">
-        <v>99.422527916666695</v>
+        <v>99.337048999999993</v>
       </c>
       <c r="E90" s="42">
-        <v>99.062650416666699</v>
+        <v>98.910116000000102</v>
       </c>
       <c r="F90" s="43">
-        <v>1.0036516666666699</v>
+        <v>1.0043325000000001</v>
       </c>
       <c r="G90" s="42">
-        <v>97.764569600000002</v>
+        <v>97.457574285714301</v>
       </c>
       <c r="H90" s="42">
-        <v>97.437118799999993</v>
+        <v>97.114433809523803</v>
       </c>
       <c r="I90" s="42">
-        <v>98.0205828</v>
+        <v>97.7116923809524</v>
       </c>
       <c r="J90" s="43">
-        <v>0.99409639999999999</v>
+        <v>0.99395047619048005</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
@@ -4137,28 +4137,28 @@
         <v>154</v>
       </c>
       <c r="C92" s="39">
-        <v>85.951074444444501</v>
+        <v>86.944335555555597</v>
       </c>
       <c r="D92" s="39">
-        <v>84.184349999999995</v>
+        <v>85.237738888888899</v>
       </c>
       <c r="E92" s="39">
-        <v>87.744314444444498</v>
+        <v>88.784855555555595</v>
       </c>
       <c r="F92" s="40">
-        <v>0.94400555555555998</v>
+        <v>0.95121111111111001</v>
       </c>
       <c r="G92" s="39">
-        <v>69.426998888888903</v>
+        <v>70.073353333333401</v>
       </c>
       <c r="H92" s="39">
-        <v>63.226183333333402</v>
+        <v>63.846510000000002</v>
       </c>
       <c r="I92" s="39">
-        <v>75.875335555555594</v>
+        <v>76.613816666666693</v>
       </c>
       <c r="J92" s="40">
-        <v>0.81008444444444005</v>
+        <v>0.81668444444443999</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
@@ -4197,28 +4197,28 @@
         <v>156</v>
       </c>
       <c r="C94" s="39">
-        <v>96.664638124999996</v>
+        <v>96.545028666666695</v>
       </c>
       <c r="D94" s="39">
-        <v>97.013485000000003</v>
+        <v>96.897270666666699</v>
       </c>
       <c r="E94" s="39">
-        <v>96.331512500000002</v>
+        <v>96.208965333333396</v>
       </c>
       <c r="F94" s="40">
-        <v>1.0070587499999999</v>
+        <v>1.0071333333333301</v>
       </c>
       <c r="G94" s="39">
-        <v>92.038351176470599</v>
+        <v>91.649180625</v>
       </c>
       <c r="H94" s="39">
-        <v>91.668288235294099</v>
+        <v>91.259870000000006</v>
       </c>
       <c r="I94" s="39">
-        <v>92.412244705882401</v>
+        <v>92.042691875000003</v>
       </c>
       <c r="J94" s="40">
-        <v>0.98870411764706001</v>
+        <v>0.98807562500000001</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
@@ -4257,28 +4257,28 @@
         <v>158</v>
       </c>
       <c r="C96" s="42">
-        <v>95.007180000000005</v>
+        <v>95.565889374999998</v>
       </c>
       <c r="D96" s="42">
-        <v>93.869896249999996</v>
+        <v>94.462427500000004</v>
       </c>
       <c r="E96" s="42">
-        <v>96.152909374999993</v>
+        <v>96.73821375</v>
       </c>
       <c r="F96" s="43">
-        <v>0.965424375</v>
+        <v>0.96947749999999999</v>
       </c>
       <c r="G96" s="42">
-        <v>89.558625000000006</v>
+        <v>89.922199375000005</v>
       </c>
       <c r="H96" s="42">
-        <v>86.873765625000004</v>
+        <v>87.222699375000005</v>
       </c>
       <c r="I96" s="42">
-        <v>92.316453124999995</v>
+        <v>92.731848749999997</v>
       </c>
       <c r="J96" s="43">
-        <v>0.91634562500000005</v>
+        <v>0.92005812499999995</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
@@ -4317,28 +4317,28 @@
         <v>160</v>
       </c>
       <c r="C98" s="39">
-        <v>89.268602857142895</v>
+        <v>89.907127857142896</v>
       </c>
       <c r="D98" s="39">
-        <v>87.728077142857202</v>
+        <v>88.405255714285701</v>
       </c>
       <c r="E98" s="39">
-        <v>90.785668571428602</v>
+        <v>91.454587857142897</v>
       </c>
       <c r="F98" s="40">
-        <v>0.95363285714285995</v>
+        <v>0.95826500000000003</v>
       </c>
       <c r="G98" s="39">
-        <v>78.593531428571495</v>
+        <v>79.009045</v>
       </c>
       <c r="H98" s="39">
-        <v>74.310162857142899</v>
+        <v>74.708944285714296</v>
       </c>
       <c r="I98" s="39">
-        <v>82.937603571428596</v>
+        <v>83.412341428571395</v>
       </c>
       <c r="J98" s="40">
-        <v>0.87334571428570995</v>
+        <v>0.87758857142857005</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4347,28 +4347,28 @@
         <v>161</v>
       </c>
       <c r="C99" s="42">
-        <v>66.871159000000006</v>
+        <v>67.765094000000005</v>
       </c>
       <c r="D99" s="42">
-        <v>62.287675999999998</v>
+        <v>63.235726</v>
       </c>
       <c r="E99" s="42">
-        <v>71.69023</v>
+        <v>72.626716999999999</v>
       </c>
       <c r="F99" s="43">
-        <v>0.83625700000000003</v>
+        <v>0.84274199999999999</v>
       </c>
       <c r="G99" s="42">
-        <v>55.938428000000002</v>
+        <v>56.520147000000001</v>
       </c>
       <c r="H99" s="42">
-        <v>48.219988999999998</v>
+        <v>48.778283000000002</v>
       </c>
       <c r="I99" s="42">
-        <v>63.933534000000002</v>
+        <v>64.598167000000004</v>
       </c>
       <c r="J99" s="43">
-        <v>0.710372</v>
+        <v>0.71631199999999995</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">

--- a/DDAf_2022_Tableau_annexe_Tab06.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab06.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>

--- a/DDAf_2022_Tableau_annexe_Tab06.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
     <t>Source : Base de données de l'Institut de statistique de l'UNESCO (ISU, récupéré le 17/11/2021)</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -4575,7 +4575,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
